--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8166C5D7-DDB3-4C93-A3E9-273F97A8BFD5}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008070EB-F02B-495D-AAF0-8A995740986F}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Event</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>3rd Place</t>
-  </si>
-  <si>
-    <t>Kishane Thompson</t>
-  </si>
-  <si>
-    <t>Noah Lyles</t>
-  </si>
-  <si>
-    <t>Fred Kerley</t>
   </si>
 </sst>
 </file>
@@ -323,6 +314,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,7 +640,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,15 +668,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008070EB-F02B-495D-AAF0-8A995740986F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FAB5D-7315-4CD5-AE27-85A25ADC6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Event</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>3rd Place</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
   </si>
 </sst>
 </file>
@@ -275,30 +284,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,10 +334,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,93 +656,101 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FAB5D-7315-4CD5-AE27-85A25ADC6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008070EB-F02B-495D-AAF0-8A995740986F}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Event</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>3rd Place</t>
-  </si>
-  <si>
-    <t>Julien Alfred</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson</t>
   </si>
 </sst>
 </file>
@@ -284,41 +275,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,6 +314,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,101 +640,93 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008070EB-F02B-495D-AAF0-8A995740986F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68A0E0C-8321-43F4-9A33-90BC8FBF4E26}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25935" windowHeight="11385" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Event</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>3rd Place</t>
+  </si>
+  <si>
+    <t>Noah Lyles</t>
+  </si>
+  <si>
+    <t>Kishane Thompson</t>
+  </si>
+  <si>
+    <t>Fred Kerley</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
   </si>
 </sst>
 </file>
@@ -640,14 +658,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,17 +687,29 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68A0E0C-8321-43F4-9A33-90BC8FBF4E26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D850A-548B-473B-8DF3-053C793E717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25935" windowHeight="11385" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Event</t>
   </si>
@@ -90,13 +90,19 @@
   </si>
   <si>
     <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
+    <t>Gabrielle Thomas</t>
+  </si>
+  <si>
+    <t>Brittany Brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +111,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,30 +291,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,10 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,106 +654,113 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D850A-548B-473B-8DF3-053C793E717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DEDE08A-4511-48EE-9248-EB747AD9519D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,32 +299,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,6 +338,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,113 +664,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DEDE08A-4511-48EE-9248-EB747AD9519D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED1C19-039A-45C8-9D20-417D9CE00CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Event</t>
   </si>
@@ -74,35 +74,98 @@
     <t>3rd Place</t>
   </si>
   <si>
-    <t>Noah Lyles</t>
-  </si>
-  <si>
-    <t>Kishane Thompson</t>
-  </si>
-  <si>
-    <t>Fred Kerley</t>
-  </si>
-  <si>
-    <t>Julien Alfred</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson</t>
-  </si>
-  <si>
-    <t>Gabrielle Thomas</t>
-  </si>
-  <si>
-    <t>Brittany Brown</t>
+    <t>Gabrielle Thomas - 21.83</t>
+  </si>
+  <si>
+    <t>Julien Alfred - 22.08</t>
+  </si>
+  <si>
+    <t>Brittany Brown - 22.20</t>
+  </si>
+  <si>
+    <t>Noah Lyles - 9.79</t>
+  </si>
+  <si>
+    <t>Kishane Thompson - 9.79</t>
+  </si>
+  <si>
+    <t>Fred Kerley - 9.81</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>Akani Simbine - 9.82</t>
+  </si>
+  <si>
+    <t>Lamont Jacobs - 9.85</t>
+  </si>
+  <si>
+    <t>Letsile Tebogo - 9.86</t>
+  </si>
+  <si>
+    <t>Kenneth Bednarek - 9.88</t>
+  </si>
+  <si>
+    <t>Oblique Seville - 9.91</t>
+  </si>
+  <si>
+    <t>Julien Alfred - 10.72</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson - 10.87</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson - 10.92</t>
+  </si>
+  <si>
+    <t>Daryll Neita - 10.96</t>
+  </si>
+  <si>
+    <t>Twanisga Terry - 10.97</t>
+  </si>
+  <si>
+    <t>Mujinga Kambundji - 10.99</t>
+  </si>
+  <si>
+    <t>Tia Clayton - 11.04</t>
+  </si>
+  <si>
+    <t>Marie-Josee Lou-Smith - 13.84</t>
+  </si>
+  <si>
+    <t>Dina Asher-Smith - 22.22</t>
+  </si>
+  <si>
+    <t>Daryll Neita - 22.23</t>
+  </si>
+  <si>
+    <t>Favour Ofili - 22.24</t>
+  </si>
+  <si>
+    <t>Mckenzie Long - 22.42</t>
+  </si>
+  <si>
+    <t>Jessika Gbai - 22.70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,30 +354,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,10 +395,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,115 +714,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8187B593-A026-4E6B-86E7-E20E3F774283}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED1C19-039A-45C8-9D20-417D9CE00CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261A85A-6E86-42D6-9849-C53DDEF5609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Event</t>
   </si>
@@ -92,36 +92,6 @@
     <t>Fred Kerley - 9.81</t>
   </si>
   <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>Akani Simbine - 9.82</t>
-  </si>
-  <si>
-    <t>Lamont Jacobs - 9.85</t>
-  </si>
-  <si>
-    <t>Letsile Tebogo - 9.86</t>
-  </si>
-  <si>
-    <t>Kenneth Bednarek - 9.88</t>
-  </si>
-  <si>
-    <t>Oblique Seville - 9.91</t>
-  </si>
-  <si>
     <t>Julien Alfred - 10.72</t>
   </si>
   <si>
@@ -129,36 +99,6 @@
   </si>
   <si>
     <t>Melissa Jefferson - 10.92</t>
-  </si>
-  <si>
-    <t>Daryll Neita - 10.96</t>
-  </si>
-  <si>
-    <t>Twanisga Terry - 10.97</t>
-  </si>
-  <si>
-    <t>Mujinga Kambundji - 10.99</t>
-  </si>
-  <si>
-    <t>Tia Clayton - 11.04</t>
-  </si>
-  <si>
-    <t>Marie-Josee Lou-Smith - 13.84</t>
-  </si>
-  <si>
-    <t>Dina Asher-Smith - 22.22</t>
-  </si>
-  <si>
-    <t>Daryll Neita - 22.23</t>
-  </si>
-  <si>
-    <t>Favour Ofili - 22.24</t>
-  </si>
-  <si>
-    <t>Mckenzie Long - 22.42</t>
-  </si>
-  <si>
-    <t>Jessika Gbai - 22.70</t>
   </si>
 </sst>
 </file>
@@ -354,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,7 +319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8187B593-A026-4E6B-86E7-E20E3F774283}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,14 +665,9 @@
     <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -746,23 +680,8 @@
       <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -775,52 +694,22 @@
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -828,7 +717,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,23 +730,8 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,7 +739,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,7 +747,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,7 +755,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261A85A-6E86-42D6-9849-C53DDEF5609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DEDE08A-4511-48EE-9248-EB747AD9519D}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Event</t>
   </si>
@@ -74,38 +74,35 @@
     <t>3rd Place</t>
   </si>
   <si>
-    <t>Gabrielle Thomas - 21.83</t>
-  </si>
-  <si>
-    <t>Julien Alfred - 22.08</t>
-  </si>
-  <si>
-    <t>Brittany Brown - 22.20</t>
-  </si>
-  <si>
-    <t>Noah Lyles - 9.79</t>
-  </si>
-  <si>
-    <t>Kishane Thompson - 9.79</t>
-  </si>
-  <si>
-    <t>Fred Kerley - 9.81</t>
-  </si>
-  <si>
-    <t>Julien Alfred - 10.72</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson - 10.87</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson - 10.92</t>
+    <t>Noah Lyles</t>
+  </si>
+  <si>
+    <t>Kishane Thompson</t>
+  </si>
+  <si>
+    <t>Fred Kerley</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
+    <t>Gabrielle Thomas</t>
+  </si>
+  <si>
+    <t>Brittany Brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,31 +299,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,6 +338,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,112 +664,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DEDE08A-4511-48EE-9248-EB747AD9519D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C418F19-21C6-4A07-A95B-1B413E370523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Event</t>
   </si>
@@ -74,35 +74,38 @@
     <t>3rd Place</t>
   </si>
   <si>
-    <t>Noah Lyles</t>
-  </si>
-  <si>
-    <t>Kishane Thompson</t>
-  </si>
-  <si>
-    <t>Fred Kerley</t>
-  </si>
-  <si>
-    <t>Julien Alfred</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson</t>
-  </si>
-  <si>
-    <t>Gabrielle Thomas</t>
-  </si>
-  <si>
-    <t>Brittany Brown</t>
+    <t>Gabrielle Thomas - (21.83)</t>
+  </si>
+  <si>
+    <t>Julien Alfred - (22.08)</t>
+  </si>
+  <si>
+    <t>Brittany Brown - (22.20)</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson - (10.92)</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson - (10.87)</t>
+  </si>
+  <si>
+    <t>Julien Alfred - (10.72)</t>
+  </si>
+  <si>
+    <t>Noah Lyles - (9.79)</t>
+  </si>
+  <si>
+    <t>Kishane Thompson - (9.79)</t>
+  </si>
+  <si>
+    <t>Fred Kerley - (9.81)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,30 +294,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,10 +334,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,112 +656,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C418F19-21C6-4A07-A95B-1B413E370523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DEDE08A-4511-48EE-9248-EB747AD9519D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Event</t>
   </si>
@@ -74,38 +74,35 @@
     <t>3rd Place</t>
   </si>
   <si>
-    <t>Gabrielle Thomas - (21.83)</t>
-  </si>
-  <si>
-    <t>Julien Alfred - (22.08)</t>
-  </si>
-  <si>
-    <t>Brittany Brown - (22.20)</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson - (10.92)</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson - (10.87)</t>
-  </si>
-  <si>
-    <t>Julien Alfred - (10.72)</t>
-  </si>
-  <si>
-    <t>Noah Lyles - (9.79)</t>
-  </si>
-  <si>
-    <t>Kishane Thompson - (9.79)</t>
-  </si>
-  <si>
-    <t>Fred Kerley - (9.81)</t>
+    <t>Noah Lyles</t>
+  </si>
+  <si>
+    <t>Kishane Thompson</t>
+  </si>
+  <si>
+    <t>Fred Kerley</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
+    <t>Gabrielle Thomas</t>
+  </si>
+  <si>
+    <t>Brittany Brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,31 +299,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,6 +338,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,112 +664,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DEDE08A-4511-48EE-9248-EB747AD9519D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BF6A69-3353-4FD2-B35A-D914EBE5B2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Event</t>
   </si>
@@ -74,6 +74,21 @@
     <t>3rd Place</t>
   </si>
   <si>
+    <t>Gabrielle Thomas</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Brittany Brown</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
     <t>Noah Lyles</t>
   </si>
   <si>
@@ -83,26 +98,20 @@
     <t>Fred Kerley</t>
   </si>
   <si>
-    <t>Julien Alfred</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson</t>
-  </si>
-  <si>
-    <t>Gabrielle Thomas</t>
-  </si>
-  <si>
-    <t>Brittany Brown</t>
+    <t>Quincy Hall</t>
+  </si>
+  <si>
+    <t>Mattew Hudson-Smith</t>
+  </si>
+  <si>
+    <t>Muzala Samukonga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,30 +300,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,10 +353,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,19 +675,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -689,87 +701,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BF6A69-3353-4FD2-B35A-D914EBE5B2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D9E404-AFAD-4CD8-B533-66C42366AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Quincy Hall</t>
   </si>
   <si>
-    <t>Mattew Hudson-Smith</t>
-  </si>
-  <si>
     <t>Muzala Samukonga</t>
+  </si>
+  <si>
+    <t>Matthew Hudson-Smith</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,10 +759,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D9E404-AFAD-4CD8-B533-66C42366AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB0D4D6-35B3-4DD0-A5DF-56EE871D911C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,44 +74,44 @@
     <t>3rd Place</t>
   </si>
   <si>
+    <t>Noah Lyles</t>
+  </si>
+  <si>
+    <t>Kishane Thompson</t>
+  </si>
+  <si>
+    <t>Fred Kerley</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
     <t>Gabrielle Thomas</t>
   </si>
   <si>
-    <t>Julien Alfred</t>
-  </si>
-  <si>
     <t>Brittany Brown</t>
   </si>
   <si>
-    <t>Melissa Jefferson</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson</t>
-  </si>
-  <si>
-    <t>Noah Lyles</t>
-  </si>
-  <si>
-    <t>Kishane Thompson</t>
-  </si>
-  <si>
-    <t>Fred Kerley</t>
-  </si>
-  <si>
     <t>Quincy Hall</t>
   </si>
   <si>
+    <t>Matthew Hudson-Smith</t>
+  </si>
+  <si>
     <t>Muzala Samukonga</t>
-  </si>
-  <si>
-    <t>Matthew Hudson-Smith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +120,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,28 +308,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -353,6 +358,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,20 +684,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -701,95 +710,96 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{FAA18E0E-7D27-4548-B0CF-C723337997DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB0D4D6-35B3-4DD0-A5DF-56EE871D911C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF143B0-7A3B-48AD-B833-3596FD3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="6024" yWindow="5784" windowWidth="14364" windowHeight="11580" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Event</t>
   </si>
@@ -74,6 +74,21 @@
     <t>3rd Place</t>
   </si>
   <si>
+    <t>Gabrielle Thomas</t>
+  </si>
+  <si>
+    <t>Julien Alfred</t>
+  </si>
+  <si>
+    <t>Brittany Brown</t>
+  </si>
+  <si>
+    <t>Melissa Jefferson</t>
+  </si>
+  <si>
+    <t>Sha'Carri Richardson</t>
+  </si>
+  <si>
     <t>Noah Lyles</t>
   </si>
   <si>
@@ -83,35 +98,26 @@
     <t>Fred Kerley</t>
   </si>
   <si>
-    <t>Julien Alfred</t>
-  </si>
-  <si>
-    <t>Melissa Jefferson</t>
-  </si>
-  <si>
-    <t>Sha'Carri Richardson</t>
-  </si>
-  <si>
-    <t>Gabrielle Thomas</t>
-  </si>
-  <si>
-    <t>Brittany Brown</t>
-  </si>
-  <si>
     <t>Quincy Hall</t>
   </si>
   <si>
+    <t>Muzala Samukonga</t>
+  </si>
+  <si>
     <t>Matthew Hudson-Smith</t>
   </si>
   <si>
-    <t>Muzala Samukonga</t>
+    <t>Letsile Tebogo</t>
+  </si>
+  <si>
+    <t>Kenneth Bednarek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +126,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,25 +306,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -358,10 +359,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,20 +681,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -710,96 +707,101 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF143B0-7A3B-48AD-B833-3596FD3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D789F55-82F9-4EBC-94FF-34D5D9D2A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6024" yWindow="5784" windowWidth="14364" windowHeight="11580" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="2280" yWindow="420" windowWidth="17304" windowHeight="11580" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Event</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Kenneth Bednarek</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GER</t>
   </si>
 </sst>
 </file>
@@ -681,7 +690,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,9 +806,15 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCRC_2024_Olympics_Pool_Results.xlsx
+++ b/SCRC_2024_Olympics_Pool_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncornish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D789F55-82F9-4EBC-94FF-34D5D9D2A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA9E188-3576-4774-B762-0866C014EE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="420" windowWidth="17304" windowHeight="11580" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
+    <workbookView xWindow="7980" yWindow="1260" windowWidth="15000" windowHeight="11580" xr2:uid="{E47C71D3-D171-487D-83A7-BB4DEDD9BAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Event</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>GER</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>Marileidy Paulino</t>
+  </si>
+  <si>
+    <t>Salwa Eid Naser</t>
+  </si>
+  <si>
+    <t>Natalia Kaczmarek</t>
   </si>
 </sst>
 </file>
@@ -690,7 +705,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,17 +805,29 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
